--- a/docs/Groups/MP1-Groups.xlsx
+++ b/docs/Groups/MP1-Groups.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tdi/Documents/Teaching/DB/2020/Assignments/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE8FDF1A-7187-BC47-8650-305CDCFAD3F4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{487E6CC6-FD6B-FB40-AA46-5DA2B453E1A4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{231BC6B6-517E-D244-9425-9C5E7CE1C1B8}"/>
+    <workbookView xWindow="2780" yWindow="460" windowWidth="28040" windowHeight="19320" xr2:uid="{231BC6B6-517E-D244-9425-9C5E7CE1C1B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="93">
   <si>
     <t>Students</t>
   </si>
@@ -295,13 +295,28 @@
   </si>
   <si>
     <t>task# = group# % 4 +1;</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and </t>
+  </si>
+  <si>
+    <t>Tasks</t>
+  </si>
+  <si>
+    <t>MP1</t>
+  </si>
+  <si>
+    <t>student #</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -312,12 +327,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="24"/>
-      <color rgb="FF1B1F22"/>
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
@@ -391,6 +400,28 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FF1B1F22"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -417,44 +448,70 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -774,773 +831,885 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819DB122-D129-2146-BD89-E29099420546}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
   <cols>
+    <col min="1" max="2" width="10.83203125" style="6"/>
     <col min="3" max="3" width="42.1640625" customWidth="1"/>
     <col min="4" max="4" width="30.6640625" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="8"/>
-    <col min="6" max="6" width="25.83203125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="6"/>
+    <col min="6" max="6" width="25.83203125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:7" s="17" customFormat="1" ht="29">
+      <c r="A1" s="20">
+        <v>2020</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>0</v>
       </c>
+      <c r="D1" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="2"/>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="19">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="7"/>
+      <c r="G3" s="5"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="10">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5"/>
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="22">
+        <v>1</v>
+      </c>
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="9">
-        <v>1</v>
-      </c>
-      <c r="F4" s="12">
-        <f xml:space="preserve"> MOD(A4, 4) + 1</f>
+      <c r="D4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <f xml:space="preserve"> MOD(B4, 4) + 1</f>
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="10">
-        <v>1</v>
-      </c>
-      <c r="B5" s="5"/>
+      <c r="A5" s="6">
+        <v>2</v>
+      </c>
+      <c r="B5" s="22">
+        <v>1</v>
+      </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="9">
-        <v>1</v>
-      </c>
-      <c r="F5" s="12">
-        <f t="shared" ref="F5:F44" si="0" xml:space="preserve"> MOD(A5, 4) + 1</f>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <f xml:space="preserve"> MOD(B5, 4) + 1</f>
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="10">
-        <v>1</v>
-      </c>
-      <c r="B6" s="5"/>
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="22">
+        <v>1</v>
+      </c>
       <c r="C6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="9">
-        <v>1</v>
-      </c>
-      <c r="F6" s="12">
-        <f t="shared" si="0"/>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <f xml:space="preserve"> MOD(B6, 4) + 1</f>
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="10">
-        <v>1</v>
-      </c>
-      <c r="B7" s="5"/>
+      <c r="A7" s="6">
+        <v>4</v>
+      </c>
+      <c r="B7" s="22">
+        <v>1</v>
+      </c>
       <c r="C7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="9">
-        <v>1</v>
-      </c>
-      <c r="F7" s="12">
-        <f t="shared" si="0"/>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <f xml:space="preserve"> MOD(B7, 4) + 1</f>
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="17">
-        <v>2</v>
-      </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="19" t="s">
+      <c r="A8" s="6">
+        <v>5</v>
+      </c>
+      <c r="B8" s="23">
+        <v>2</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="21">
-        <v>1</v>
-      </c>
-      <c r="F8" s="22">
-        <f t="shared" si="0"/>
+      <c r="E8" s="15">
+        <v>1</v>
+      </c>
+      <c r="F8" s="16">
+        <f xml:space="preserve"> MOD(B8, 4) + 1</f>
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="17">
-        <v>2</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="19" t="s">
+      <c r="A9" s="6">
+        <v>6</v>
+      </c>
+      <c r="B9" s="23">
+        <v>2</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="21">
-        <v>1</v>
-      </c>
-      <c r="F9" s="22">
-        <f t="shared" si="0"/>
+      <c r="E9" s="15">
+        <v>1</v>
+      </c>
+      <c r="F9" s="16">
+        <f xml:space="preserve"> MOD(B9, 4) + 1</f>
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="17">
-        <v>2</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="19" t="s">
+      <c r="A10" s="6">
+        <v>7</v>
+      </c>
+      <c r="B10" s="23">
+        <v>2</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="21">
-        <v>1</v>
-      </c>
-      <c r="F10" s="22">
-        <f t="shared" si="0"/>
+      <c r="E10" s="15">
+        <v>1</v>
+      </c>
+      <c r="F10" s="16">
+        <f xml:space="preserve"> MOD(B10, 4) + 1</f>
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="17">
-        <v>2</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="19" t="s">
+      <c r="A11" s="6">
+        <v>8</v>
+      </c>
+      <c r="B11" s="23">
+        <v>2</v>
+      </c>
+      <c r="C11" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="21">
-        <v>1</v>
-      </c>
-      <c r="F11" s="22">
-        <f t="shared" si="0"/>
+      <c r="E11" s="15">
+        <v>1</v>
+      </c>
+      <c r="F11" s="16">
+        <f xml:space="preserve"> MOD(B11, 4) + 1</f>
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="10">
+      <c r="A12" s="6">
+        <v>9</v>
+      </c>
+      <c r="B12" s="22">
         <v>3</v>
       </c>
-      <c r="B12" s="5"/>
       <c r="C12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="9">
-        <v>1</v>
-      </c>
-      <c r="F12" s="12">
-        <f t="shared" si="0"/>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="8">
+        <f xml:space="preserve"> MOD(B12, 4) + 1</f>
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="10">
+      <c r="A13" s="6">
+        <v>10</v>
+      </c>
+      <c r="B13" s="22">
         <v>3</v>
       </c>
-      <c r="B13" s="5"/>
       <c r="C13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="9">
-        <v>1</v>
-      </c>
-      <c r="F13" s="12">
-        <f t="shared" si="0"/>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8">
+        <f xml:space="preserve"> MOD(B13, 4) + 1</f>
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="10">
+      <c r="A14" s="6">
+        <v>11</v>
+      </c>
+      <c r="B14" s="22">
         <v>3</v>
       </c>
-      <c r="B14" s="5"/>
       <c r="C14" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="9">
-        <v>1</v>
-      </c>
-      <c r="F14" s="12">
-        <f t="shared" si="0"/>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8">
+        <f xml:space="preserve"> MOD(B14, 4) + 1</f>
         <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="10">
+      <c r="A15" s="6">
+        <v>12</v>
+      </c>
+      <c r="B15" s="22">
         <v>3</v>
       </c>
-      <c r="B15" s="5"/>
       <c r="C15" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E15" s="9">
-        <v>1</v>
-      </c>
-      <c r="F15" s="12">
-        <f t="shared" si="0"/>
+      <c r="E15" s="7">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8">
+        <f xml:space="preserve"> MOD(B15, 4) + 1</f>
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="17">
+      <c r="A16" s="6">
+        <v>13</v>
+      </c>
+      <c r="B16" s="23">
         <v>4</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="21">
-        <v>1</v>
-      </c>
-      <c r="F16" s="22">
-        <f t="shared" si="0"/>
+      <c r="E16" s="15">
+        <v>1</v>
+      </c>
+      <c r="F16" s="16">
+        <f xml:space="preserve"> MOD(B16, 4) + 1</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="17">
+      <c r="A17" s="6">
+        <v>14</v>
+      </c>
+      <c r="B17" s="23">
         <v>4</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="19" t="s">
+      <c r="C17" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E17" s="21">
-        <v>2</v>
-      </c>
-      <c r="F17" s="22">
-        <f t="shared" si="0"/>
+      <c r="E17" s="15">
+        <v>2</v>
+      </c>
+      <c r="F17" s="16">
+        <f xml:space="preserve"> MOD(B17, 4) + 1</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="17">
+      <c r="A18" s="6">
+        <v>15</v>
+      </c>
+      <c r="B18" s="23">
         <v>4</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E18" s="21">
-        <v>2</v>
-      </c>
-      <c r="F18" s="22">
-        <f t="shared" si="0"/>
+      <c r="E18" s="15">
+        <v>2</v>
+      </c>
+      <c r="F18" s="16">
+        <f xml:space="preserve"> MOD(B18, 4) + 1</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="17">
+      <c r="A19" s="6">
+        <v>16</v>
+      </c>
+      <c r="B19" s="23">
         <v>4</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="E19" s="21">
-        <v>2</v>
-      </c>
-      <c r="F19" s="22">
-        <f t="shared" si="0"/>
+      <c r="E19" s="15">
+        <v>2</v>
+      </c>
+      <c r="F19" s="16">
+        <f xml:space="preserve"> MOD(B19, 4) + 1</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="10">
+      <c r="A20" s="6">
+        <v>17</v>
+      </c>
+      <c r="B20" s="22">
         <v>5</v>
       </c>
-      <c r="B20" s="5"/>
       <c r="C20" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E20" s="9">
-        <v>1</v>
-      </c>
-      <c r="F20" s="12">
-        <f t="shared" si="0"/>
+      <c r="E20" s="7">
+        <v>1</v>
+      </c>
+      <c r="F20" s="8">
+        <f xml:space="preserve"> MOD(B20, 4) + 1</f>
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="10">
+      <c r="A21" s="6">
+        <v>18</v>
+      </c>
+      <c r="B21" s="22">
         <v>5</v>
       </c>
-      <c r="B21" s="5"/>
       <c r="C21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="9">
-        <v>1</v>
-      </c>
-      <c r="F21" s="12">
-        <f t="shared" si="0"/>
+      <c r="E21" s="7">
+        <v>1</v>
+      </c>
+      <c r="F21" s="8">
+        <f xml:space="preserve"> MOD(B21, 4) + 1</f>
         <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="10">
+      <c r="A22" s="6">
+        <v>19</v>
+      </c>
+      <c r="B22" s="22">
         <v>5</v>
       </c>
-      <c r="B22" s="5"/>
       <c r="C22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E22" s="9">
-        <v>1</v>
-      </c>
-      <c r="F22" s="12">
-        <f t="shared" si="0"/>
+      <c r="E22" s="7">
+        <v>1</v>
+      </c>
+      <c r="F22" s="8">
+        <f xml:space="preserve"> MOD(B22, 4) + 1</f>
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="10">
+      <c r="A23" s="6">
+        <v>20</v>
+      </c>
+      <c r="B23" s="22">
         <v>5</v>
       </c>
-      <c r="B23" s="5"/>
       <c r="C23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="9">
-        <v>1</v>
-      </c>
-      <c r="F23" s="12">
-        <f t="shared" si="0"/>
+      <c r="E23" s="7">
+        <v>1</v>
+      </c>
+      <c r="F23" s="8">
+        <f xml:space="preserve"> MOD(B23, 4) + 1</f>
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="17">
+      <c r="A24" s="6">
+        <v>21</v>
+      </c>
+      <c r="B24" s="23">
         <v>6</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="19" t="s">
+      <c r="C24" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E24" s="21">
-        <v>2</v>
-      </c>
-      <c r="F24" s="22">
-        <f t="shared" si="0"/>
+      <c r="E24" s="15">
+        <v>2</v>
+      </c>
+      <c r="F24" s="16">
+        <f xml:space="preserve"> MOD(B24, 4) + 1</f>
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="17">
+      <c r="A25" s="6">
+        <v>22</v>
+      </c>
+      <c r="B25" s="23">
         <v>6</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="E25" s="21">
-        <v>2</v>
-      </c>
-      <c r="F25" s="22">
-        <f t="shared" si="0"/>
+      <c r="E25" s="15">
+        <v>2</v>
+      </c>
+      <c r="F25" s="16">
+        <f xml:space="preserve"> MOD(B25, 4) + 1</f>
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="17">
+      <c r="A26" s="6">
+        <v>23</v>
+      </c>
+      <c r="B26" s="23">
         <v>6</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="19" t="s">
+      <c r="C26" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="21">
-        <v>2</v>
-      </c>
-      <c r="F26" s="22">
-        <f t="shared" si="0"/>
+      <c r="E26" s="15">
+        <v>2</v>
+      </c>
+      <c r="F26" s="16">
+        <f xml:space="preserve"> MOD(B26, 4) + 1</f>
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="10">
+      <c r="A27" s="6">
+        <v>24</v>
+      </c>
+      <c r="B27" s="22">
         <v>7</v>
       </c>
-      <c r="B27" s="5"/>
       <c r="C27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="9">
-        <v>2</v>
-      </c>
-      <c r="F27" s="12">
-        <f t="shared" si="0"/>
+      <c r="E27" s="7">
+        <v>2</v>
+      </c>
+      <c r="F27" s="8">
+        <f xml:space="preserve"> MOD(B27, 4) + 1</f>
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="10">
+      <c r="A28" s="6">
+        <v>25</v>
+      </c>
+      <c r="B28" s="22">
         <v>7</v>
       </c>
-      <c r="B28" s="5"/>
       <c r="C28" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="9">
-        <v>2</v>
-      </c>
-      <c r="F28" s="12">
-        <f t="shared" si="0"/>
+      <c r="E28" s="7">
+        <v>2</v>
+      </c>
+      <c r="F28" s="8">
+        <f xml:space="preserve"> MOD(B28, 4) + 1</f>
         <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="10">
+      <c r="A29" s="6">
+        <v>26</v>
+      </c>
+      <c r="B29" s="22">
         <v>7</v>
       </c>
-      <c r="B29" s="5"/>
       <c r="C29" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E29" s="9">
-        <v>2</v>
-      </c>
-      <c r="F29" s="12">
-        <f t="shared" si="0"/>
+      <c r="E29" s="7">
+        <v>2</v>
+      </c>
+      <c r="F29" s="8">
+        <f xml:space="preserve"> MOD(B29, 4) + 1</f>
         <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="10">
+      <c r="A30" s="6">
+        <v>27</v>
+      </c>
+      <c r="B30" s="22">
         <v>7</v>
       </c>
-      <c r="B30" s="5"/>
       <c r="C30" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E30" s="9">
-        <v>2</v>
-      </c>
-      <c r="F30" s="12">
+      <c r="E30" s="7">
+        <v>2</v>
+      </c>
+      <c r="F30" s="8">
+        <f xml:space="preserve"> MOD(B30, 4) + 1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="6">
+        <v>28</v>
+      </c>
+      <c r="B31" s="23">
+        <v>8</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" s="15">
+        <v>1</v>
+      </c>
+      <c r="F31" s="16">
+        <f xml:space="preserve"> MOD(B31, 4) + 1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="6">
+        <v>36</v>
+      </c>
+      <c r="B32" s="24">
+        <v>9</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="7">
+        <v>2</v>
+      </c>
+      <c r="F32" s="26">
+        <f t="shared" ref="F32:F34" si="0" xml:space="preserve"> MOD(B32, 4) + 1</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="6">
+        <v>39</v>
+      </c>
+      <c r="B33" s="24">
+        <v>9</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E33" s="7">
+        <v>2</v>
+      </c>
+      <c r="F33" s="26">
         <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="17">
-        <v>8</v>
-      </c>
-      <c r="B31" s="18"/>
-      <c r="C31" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="21">
-        <v>1</v>
-      </c>
-      <c r="F31" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="6">
+        <v>41</v>
+      </c>
+      <c r="B34" s="24">
+        <v>9</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="7">
+        <v>2</v>
+      </c>
+      <c r="F34" s="26">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="10"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="6">
+        <v>29</v>
+      </c>
+      <c r="B35" s="24"/>
+      <c r="C35" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="D35" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E32" s="9">
-        <v>2</v>
-      </c>
-      <c r="F32" s="12"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="11"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="2" t="s">
+      <c r="E35" s="7">
+        <v>2</v>
+      </c>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="6">
+        <v>30</v>
+      </c>
+      <c r="B36" s="24"/>
+      <c r="C36" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="6" t="s">
+      <c r="D36" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="9">
-        <v>1</v>
-      </c>
-      <c r="F33" s="12"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="11"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="2" t="s">
+      <c r="E36" s="7">
+        <v>1</v>
+      </c>
+      <c r="F36" s="8"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="6">
+        <v>31</v>
+      </c>
+      <c r="B37" s="24"/>
+      <c r="C37" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D37" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="9">
-        <v>1</v>
-      </c>
-      <c r="F34" s="12"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="11"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="2" t="s">
+      <c r="E37" s="7">
+        <v>1</v>
+      </c>
+      <c r="F37" s="8"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="6">
+        <v>32</v>
+      </c>
+      <c r="B38" s="24"/>
+      <c r="C38" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D38" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E35" s="9">
-        <v>1</v>
-      </c>
-      <c r="F35" s="12"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="11"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="2" t="s">
+      <c r="E38" s="7">
+        <v>1</v>
+      </c>
+      <c r="F38" s="8"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="6">
+        <v>33</v>
+      </c>
+      <c r="B39" s="24"/>
+      <c r="C39" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D39" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="9">
-        <v>1</v>
-      </c>
-      <c r="F36" s="12"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="11"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="2" t="s">
+      <c r="E39" s="7">
+        <v>1</v>
+      </c>
+      <c r="F39" s="8"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="6">
+        <v>34</v>
+      </c>
+      <c r="B40" s="24"/>
+      <c r="C40" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="6" t="s">
+      <c r="D40" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E37" s="9">
-        <v>2</v>
-      </c>
-      <c r="F37" s="12"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="11"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="2" t="s">
+      <c r="E40" s="7">
+        <v>2</v>
+      </c>
+      <c r="F40" s="8"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="6">
+        <v>35</v>
+      </c>
+      <c r="B41" s="24"/>
+      <c r="C41" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D41" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="9">
-        <v>2</v>
-      </c>
-      <c r="F38" s="12"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="11"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E39" s="9">
-        <v>2</v>
-      </c>
-      <c r="F39" s="12"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="11"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="2" t="s">
+      <c r="E41" s="7">
+        <v>2</v>
+      </c>
+      <c r="F41" s="8"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="6">
+        <v>37</v>
+      </c>
+      <c r="B42" s="24"/>
+      <c r="C42" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D42" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E40" s="9">
-        <v>2</v>
-      </c>
-      <c r="F40" s="12"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="11"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="2" t="s">
+      <c r="E42" s="7">
+        <v>2</v>
+      </c>
+      <c r="F42" s="8"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="6">
+        <v>38</v>
+      </c>
+      <c r="B43" s="24"/>
+      <c r="C43" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="D43" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="9">
-        <v>2</v>
-      </c>
-      <c r="F41" s="12"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="11"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E42" s="9">
-        <v>2</v>
-      </c>
-      <c r="F42" s="12"/>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="11"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="2" t="s">
+      <c r="E43" s="7">
+        <v>2</v>
+      </c>
+      <c r="F43" s="8"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="6">
+        <v>40</v>
+      </c>
+      <c r="B44" s="24"/>
+      <c r="C44" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D44" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E43" s="9">
-        <v>2</v>
-      </c>
-      <c r="F43" s="12"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="11"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E44" s="9">
-        <v>2</v>
-      </c>
-      <c r="F44" s="12"/>
+      <c r="E44" s="7">
+        <v>2</v>
+      </c>
+      <c r="F44" s="8"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="21"/>
       <c r="C45" s="1"/>
-      <c r="D45" s="4"/>
+      <c r="D45" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:E44">
-    <sortCondition ref="A4:A44"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F44">
+    <sortCondition ref="B4:B44"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="D4" r:id="rId1" display="mailto:cph-al262@cphbusiness.dk" xr:uid="{C49918C1-A997-0645-8E53-489E034841D2}"/>
@@ -1552,11 +1721,11 @@
     <hyperlink ref="D21" r:id="rId7" display="mailto:cph-eh108@cphbusiness.dk" xr:uid="{A061C837-034D-6E48-BB7B-06DA961EE513}"/>
     <hyperlink ref="D13" r:id="rId8" display="mailto:cph-jb308@cphbusiness.dk" xr:uid="{7A17B994-210D-AE45-93B0-7BC7B6C70E54}"/>
     <hyperlink ref="D5" r:id="rId9" display="mailto:cph-jr211@cphbusiness.dk" xr:uid="{55EBFBBF-A6A1-A744-9409-41D4A22DDBC1}"/>
-    <hyperlink ref="D33" r:id="rId10" display="mailto:cph-jg134@cphbusiness.dk" xr:uid="{894DAD7F-1EFE-8046-B536-BB9F1420C9A7}"/>
-    <hyperlink ref="D34" r:id="rId11" display="mailto:cph-jd158@cphbusiness.dk" xr:uid="{947B5C91-F866-6647-BB5F-77D0CD1E77D7}"/>
-    <hyperlink ref="D35" r:id="rId12" display="mailto:cph-kt119@cphbusiness.dk" xr:uid="{075945A5-5151-5941-A630-4F75F0A3F680}"/>
+    <hyperlink ref="D36" r:id="rId10" display="mailto:cph-jg134@cphbusiness.dk" xr:uid="{894DAD7F-1EFE-8046-B536-BB9F1420C9A7}"/>
+    <hyperlink ref="D37" r:id="rId11" display="mailto:cph-jd158@cphbusiness.dk" xr:uid="{947B5C91-F866-6647-BB5F-77D0CD1E77D7}"/>
+    <hyperlink ref="D38" r:id="rId12" display="mailto:cph-kt119@cphbusiness.dk" xr:uid="{075945A5-5151-5941-A630-4F75F0A3F680}"/>
     <hyperlink ref="D22" r:id="rId13" display="mailto:cph-ml510@cphbusiness.dk" xr:uid="{B5FEEFF7-C45D-ED4D-B472-0705C7D572F2}"/>
-    <hyperlink ref="D36" r:id="rId14" display="mailto:cph-ms898@cphbusiness.dk" xr:uid="{8D539C17-6A47-A046-BB43-0AEEB64E1E8F}"/>
+    <hyperlink ref="D39" r:id="rId14" display="mailto:cph-ms898@cphbusiness.dk" xr:uid="{8D539C17-6A47-A046-BB43-0AEEB64E1E8F}"/>
     <hyperlink ref="D9" r:id="rId15" display="mailto:cph-mh682@cphbusiness.dk" xr:uid="{B3CA19E3-42B9-1546-B2B2-4A746031600E}"/>
     <hyperlink ref="D6" r:id="rId16" display="mailto:cph-na130@cphbusiness.dk" xr:uid="{D6129012-2841-5046-AD49-14E72C434161}"/>
     <hyperlink ref="D14" r:id="rId17" display="mailto:cph-nn134@cphbusiness.dk" xr:uid="{8B4598DE-E3A7-FD4E-9FF8-D14C79E6BE6E}"/>
@@ -1566,25 +1735,26 @@
     <hyperlink ref="D23" r:id="rId21" display="mailto:cph-sl281@cphbusiness.dk" xr:uid="{D3388EB4-39A6-EC43-923D-2A6AF545FB9D}"/>
     <hyperlink ref="D15" r:id="rId22" display="mailto:cph-sd115@cphbusiness.dk" xr:uid="{92FF4C6D-5049-AE40-84C2-76A658428789}"/>
     <hyperlink ref="D17" r:id="rId23" display="mailto:cph-ah353@cphbusiness.dk" xr:uid="{626835B6-7720-2742-BC13-C62A7EE2F9D7}"/>
-    <hyperlink ref="D37" r:id="rId24" display="mailto:cph-cl166@cphbusiness.dk" xr:uid="{C0D29E38-92F9-AA47-B1A5-7FC1A781F6A1}"/>
-    <hyperlink ref="D38" r:id="rId25" display="mailto:cph-cr243@cphbusiness.dk" xr:uid="{E9333E26-34A0-DC48-A6DF-087A932D10F9}"/>
+    <hyperlink ref="D40" r:id="rId24" display="mailto:cph-cl166@cphbusiness.dk" xr:uid="{C0D29E38-92F9-AA47-B1A5-7FC1A781F6A1}"/>
+    <hyperlink ref="D41" r:id="rId25" display="mailto:cph-cr243@cphbusiness.dk" xr:uid="{E9333E26-34A0-DC48-A6DF-087A932D10F9}"/>
     <hyperlink ref="D27" r:id="rId26" display="mailto:cph-gm@cphbusiness.dk" xr:uid="{7178EFF7-9BE5-6541-ADF6-75363F192A64}"/>
     <hyperlink ref="D28" r:id="rId27" display="mailto:cph-hm148@cphbusiness.dk" xr:uid="{71CE74B7-FAAC-B540-A35B-610891A08885}"/>
     <hyperlink ref="D29" r:id="rId28" display="mailto:cph-hh266@cphbusiness.dk" xr:uid="{133F8FA8-B6BC-D846-BAB3-B440ECFB1172}"/>
-    <hyperlink ref="D39" r:id="rId29" display="mailto:cph-hs151@cphbusiness.dk" xr:uid="{03251D1A-D6F8-F243-95B6-8DCDF0B9024A}"/>
-    <hyperlink ref="D40" r:id="rId30" display="mailto:cph-jp330@cphbusiness.dk" xr:uid="{2742FBED-96D9-7145-A03C-DF536369BE19}"/>
+    <hyperlink ref="D32" r:id="rId29" display="mailto:cph-hs151@cphbusiness.dk" xr:uid="{03251D1A-D6F8-F243-95B6-8DCDF0B9024A}"/>
+    <hyperlink ref="D42" r:id="rId30" display="mailto:cph-jp330@cphbusiness.dk" xr:uid="{2742FBED-96D9-7145-A03C-DF536369BE19}"/>
     <hyperlink ref="D30" r:id="rId31" display="mailto:cph-kh388@cphbusiness.dk" xr:uid="{413C9DF6-9649-FF43-9005-617153D39FC4}"/>
-    <hyperlink ref="D41" r:id="rId32" display="mailto:cph-mj561@cphbusiness.dk" xr:uid="{079E783D-6663-9840-8E20-0C8B58126193}"/>
+    <hyperlink ref="D43" r:id="rId32" display="mailto:cph-mj561@cphbusiness.dk" xr:uid="{079E783D-6663-9840-8E20-0C8B58126193}"/>
     <hyperlink ref="D18" r:id="rId33" display="mailto:cph-mb493@cphbusiness.dk" xr:uid="{1708782E-A20F-A04C-9A8D-AF23ECEC28CB}"/>
-    <hyperlink ref="D42" r:id="rId34" display="mailto:cph-mi73@cphbusiness.dk" xr:uid="{A4468CD3-3DF5-384C-8AF4-C693B9135CF6}"/>
+    <hyperlink ref="D33" r:id="rId34" display="mailto:cph-mi73@cphbusiness.dk" xr:uid="{A4468CD3-3DF5-384C-8AF4-C693B9135CF6}"/>
     <hyperlink ref="D24" r:id="rId35" display="mailto:cph-mh643@cphbusiness.dk" xr:uid="{5D66061C-0172-A44C-B732-69552EA78018}"/>
-    <hyperlink ref="D43" r:id="rId36" display="mailto:cph-me209@cphbusiness.dk" xr:uid="{06B40315-94BB-BD4B-B540-C5D8538FC471}"/>
-    <hyperlink ref="D32" r:id="rId37" display="mailto:cph-mu47@cphbusiness.dk" xr:uid="{F5552375-798E-2C47-A53B-4829C72984CF}"/>
+    <hyperlink ref="D44" r:id="rId36" display="mailto:cph-me209@cphbusiness.dk" xr:uid="{06B40315-94BB-BD4B-B540-C5D8538FC471}"/>
+    <hyperlink ref="D35" r:id="rId37" display="mailto:cph-mu47@cphbusiness.dk" xr:uid="{F5552375-798E-2C47-A53B-4829C72984CF}"/>
     <hyperlink ref="D25" r:id="rId38" display="mailto:cph-nc103@cphbusiness.dk" xr:uid="{BCCB3D03-FBCB-5D4D-81F8-36D1DECD4195}"/>
     <hyperlink ref="D26" r:id="rId39" display="mailto:cph-nj183@cphbusiness.dk" xr:uid="{8AD3CB84-06A3-5B45-A695-4C9EF187232C}"/>
-    <hyperlink ref="D44" r:id="rId40" display="mailto:cph-ol31@cphbusiness.dk" xr:uid="{B35A2785-5C17-3A41-BF87-78E2D1E045D1}"/>
+    <hyperlink ref="D34" r:id="rId40" display="mailto:cph-ol31@cphbusiness.dk" xr:uid="{B35A2785-5C17-3A41-BF87-78E2D1E045D1}"/>
     <hyperlink ref="D19" r:id="rId41" display="mailto:cph-sn183@cphbusiness.dk" xr:uid="{C0579AC2-3802-6C48-A1C2-72B35549B7BD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/docs/Groups/MP1-Groups.xlsx
+++ b/docs/Groups/MP1-Groups.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tdi/Documents/Teaching/DB/2020/Assignments/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tdi/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{487E6CC6-FD6B-FB40-AA46-5DA2B453E1A4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{559DAF28-ECAC-AE42-A583-009D0C76C22E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="460" windowWidth="28040" windowHeight="19320" xr2:uid="{231BC6B6-517E-D244-9425-9C5E7CE1C1B8}"/>
   </bookViews>
@@ -831,8 +831,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{819DB122-D129-2146-BD89-E29099420546}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="8">
-        <f xml:space="preserve"> MOD(B4, 4) + 1</f>
+        <f t="shared" ref="F4:F31" si="0" xml:space="preserve"> MOD(B4, 4) + 1</f>
         <v>2</v>
       </c>
     </row>
@@ -928,7 +928,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="8">
-        <f xml:space="preserve"> MOD(B5, 4) + 1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -949,7 +949,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="8">
-        <f xml:space="preserve"> MOD(B6, 4) + 1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -970,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="8">
-        <f xml:space="preserve"> MOD(B7, 4) + 1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -991,7 +991,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="16">
-        <f xml:space="preserve"> MOD(B8, 4) + 1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1012,7 +1012,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="16">
-        <f xml:space="preserve"> MOD(B9, 4) + 1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="16">
-        <f xml:space="preserve"> MOD(B10, 4) + 1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="16">
-        <f xml:space="preserve"> MOD(B11, 4) + 1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="8">
-        <f xml:space="preserve"> MOD(B12, 4) + 1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1096,7 +1096,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="8">
-        <f xml:space="preserve"> MOD(B13, 4) + 1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="8">
-        <f xml:space="preserve"> MOD(B14, 4) + 1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1138,7 +1138,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="8">
-        <f xml:space="preserve"> MOD(B15, 4) + 1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
         <v>1</v>
       </c>
       <c r="F16" s="16">
-        <f xml:space="preserve"> MOD(B16, 4) + 1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
         <v>2</v>
       </c>
       <c r="F17" s="16">
-        <f xml:space="preserve"> MOD(B17, 4) + 1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1201,7 +1201,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="16">
-        <f xml:space="preserve"> MOD(B18, 4) + 1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1222,7 +1222,7 @@
         <v>2</v>
       </c>
       <c r="F19" s="16">
-        <f xml:space="preserve"> MOD(B19, 4) + 1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="8">
-        <f xml:space="preserve"> MOD(B20, 4) + 1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1264,7 +1264,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="8">
-        <f xml:space="preserve"> MOD(B21, 4) + 1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
         <v>1</v>
       </c>
       <c r="F22" s="8">
-        <f xml:space="preserve"> MOD(B22, 4) + 1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1306,7 +1306,7 @@
         <v>1</v>
       </c>
       <c r="F23" s="8">
-        <f xml:space="preserve"> MOD(B23, 4) + 1</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1327,7 +1327,7 @@
         <v>2</v>
       </c>
       <c r="F24" s="16">
-        <f xml:space="preserve"> MOD(B24, 4) + 1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1348,7 +1348,7 @@
         <v>2</v>
       </c>
       <c r="F25" s="16">
-        <f xml:space="preserve"> MOD(B25, 4) + 1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1369,7 +1369,7 @@
         <v>2</v>
       </c>
       <c r="F26" s="16">
-        <f xml:space="preserve"> MOD(B26, 4) + 1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1390,7 +1390,7 @@
         <v>2</v>
       </c>
       <c r="F27" s="8">
-        <f xml:space="preserve"> MOD(B27, 4) + 1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1411,7 +1411,7 @@
         <v>2</v>
       </c>
       <c r="F28" s="8">
-        <f xml:space="preserve"> MOD(B28, 4) + 1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
         <v>2</v>
       </c>
       <c r="F29" s="8">
-        <f xml:space="preserve"> MOD(B29, 4) + 1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
         <v>2</v>
       </c>
       <c r="F30" s="8">
-        <f xml:space="preserve"> MOD(B30, 4) + 1</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1474,7 +1474,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="16">
-        <f xml:space="preserve"> MOD(B31, 4) + 1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1495,7 +1495,7 @@
         <v>2</v>
       </c>
       <c r="F32" s="26">
-        <f t="shared" ref="F32:F34" si="0" xml:space="preserve"> MOD(B32, 4) + 1</f>
+        <f t="shared" ref="F32:F36" si="1" xml:space="preserve"> MOD(B32, 4) + 1</f>
         <v>2</v>
       </c>
     </row>
@@ -1516,7 +1516,7 @@
         <v>2</v>
       </c>
       <c r="F33" s="26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
         <v>2</v>
       </c>
       <c r="F34" s="26">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> MOD(B34, 4) + 1</f>
         <v>2</v>
       </c>
     </row>
@@ -1545,33 +1545,43 @@
       <c r="A35" s="6">
         <v>29</v>
       </c>
-      <c r="B35" s="24"/>
+      <c r="B35" s="24">
+        <v>10</v>
+      </c>
       <c r="C35" s="2" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="E35" s="7">
         <v>2</v>
       </c>
-      <c r="F35" s="8"/>
+      <c r="F35" s="26">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="6">
         <v>30</v>
       </c>
-      <c r="B36" s="24"/>
+      <c r="B36" s="24">
+        <v>10</v>
+      </c>
       <c r="C36" s="2" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E36" s="7">
-        <v>1</v>
-      </c>
-      <c r="F36" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="F36" s="26">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="6">
@@ -1579,13 +1589,13 @@
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="2" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="E37" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37" s="8"/>
     </row>
@@ -1595,10 +1605,10 @@
       </c>
       <c r="B38" s="24"/>
       <c r="C38" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E38" s="7">
         <v>1</v>
@@ -1611,10 +1621,10 @@
       </c>
       <c r="B39" s="24"/>
       <c r="C39" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E39" s="7">
         <v>1</v>
@@ -1627,13 +1637,13 @@
       </c>
       <c r="B40" s="24"/>
       <c r="C40" s="2" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="E40" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" s="8"/>
     </row>
@@ -1643,13 +1653,13 @@
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="E41" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" s="8"/>
     </row>
@@ -1659,10 +1669,10 @@
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E42" s="7">
         <v>2</v>
@@ -1721,11 +1731,11 @@
     <hyperlink ref="D21" r:id="rId7" display="mailto:cph-eh108@cphbusiness.dk" xr:uid="{A061C837-034D-6E48-BB7B-06DA961EE513}"/>
     <hyperlink ref="D13" r:id="rId8" display="mailto:cph-jb308@cphbusiness.dk" xr:uid="{7A17B994-210D-AE45-93B0-7BC7B6C70E54}"/>
     <hyperlink ref="D5" r:id="rId9" display="mailto:cph-jr211@cphbusiness.dk" xr:uid="{55EBFBBF-A6A1-A744-9409-41D4A22DDBC1}"/>
-    <hyperlink ref="D36" r:id="rId10" display="mailto:cph-jg134@cphbusiness.dk" xr:uid="{894DAD7F-1EFE-8046-B536-BB9F1420C9A7}"/>
-    <hyperlink ref="D37" r:id="rId11" display="mailto:cph-jd158@cphbusiness.dk" xr:uid="{947B5C91-F866-6647-BB5F-77D0CD1E77D7}"/>
-    <hyperlink ref="D38" r:id="rId12" display="mailto:cph-kt119@cphbusiness.dk" xr:uid="{075945A5-5151-5941-A630-4F75F0A3F680}"/>
+    <hyperlink ref="D38" r:id="rId10" display="mailto:cph-jg134@cphbusiness.dk" xr:uid="{894DAD7F-1EFE-8046-B536-BB9F1420C9A7}"/>
+    <hyperlink ref="D39" r:id="rId11" display="mailto:cph-jd158@cphbusiness.dk" xr:uid="{947B5C91-F866-6647-BB5F-77D0CD1E77D7}"/>
+    <hyperlink ref="D40" r:id="rId12" display="mailto:cph-kt119@cphbusiness.dk" xr:uid="{075945A5-5151-5941-A630-4F75F0A3F680}"/>
     <hyperlink ref="D22" r:id="rId13" display="mailto:cph-ml510@cphbusiness.dk" xr:uid="{B5FEEFF7-C45D-ED4D-B472-0705C7D572F2}"/>
-    <hyperlink ref="D39" r:id="rId14" display="mailto:cph-ms898@cphbusiness.dk" xr:uid="{8D539C17-6A47-A046-BB43-0AEEB64E1E8F}"/>
+    <hyperlink ref="D41" r:id="rId14" display="mailto:cph-ms898@cphbusiness.dk" xr:uid="{8D539C17-6A47-A046-BB43-0AEEB64E1E8F}"/>
     <hyperlink ref="D9" r:id="rId15" display="mailto:cph-mh682@cphbusiness.dk" xr:uid="{B3CA19E3-42B9-1546-B2B2-4A746031600E}"/>
     <hyperlink ref="D6" r:id="rId16" display="mailto:cph-na130@cphbusiness.dk" xr:uid="{D6129012-2841-5046-AD49-14E72C434161}"/>
     <hyperlink ref="D14" r:id="rId17" display="mailto:cph-nn134@cphbusiness.dk" xr:uid="{8B4598DE-E3A7-FD4E-9FF8-D14C79E6BE6E}"/>
@@ -1735,20 +1745,20 @@
     <hyperlink ref="D23" r:id="rId21" display="mailto:cph-sl281@cphbusiness.dk" xr:uid="{D3388EB4-39A6-EC43-923D-2A6AF545FB9D}"/>
     <hyperlink ref="D15" r:id="rId22" display="mailto:cph-sd115@cphbusiness.dk" xr:uid="{92FF4C6D-5049-AE40-84C2-76A658428789}"/>
     <hyperlink ref="D17" r:id="rId23" display="mailto:cph-ah353@cphbusiness.dk" xr:uid="{626835B6-7720-2742-BC13-C62A7EE2F9D7}"/>
-    <hyperlink ref="D40" r:id="rId24" display="mailto:cph-cl166@cphbusiness.dk" xr:uid="{C0D29E38-92F9-AA47-B1A5-7FC1A781F6A1}"/>
-    <hyperlink ref="D41" r:id="rId25" display="mailto:cph-cr243@cphbusiness.dk" xr:uid="{E9333E26-34A0-DC48-A6DF-087A932D10F9}"/>
+    <hyperlink ref="D42" r:id="rId24" display="mailto:cph-cl166@cphbusiness.dk" xr:uid="{C0D29E38-92F9-AA47-B1A5-7FC1A781F6A1}"/>
+    <hyperlink ref="D35" r:id="rId25" display="mailto:cph-cr243@cphbusiness.dk" xr:uid="{E9333E26-34A0-DC48-A6DF-087A932D10F9}"/>
     <hyperlink ref="D27" r:id="rId26" display="mailto:cph-gm@cphbusiness.dk" xr:uid="{7178EFF7-9BE5-6541-ADF6-75363F192A64}"/>
     <hyperlink ref="D28" r:id="rId27" display="mailto:cph-hm148@cphbusiness.dk" xr:uid="{71CE74B7-FAAC-B540-A35B-610891A08885}"/>
     <hyperlink ref="D29" r:id="rId28" display="mailto:cph-hh266@cphbusiness.dk" xr:uid="{133F8FA8-B6BC-D846-BAB3-B440ECFB1172}"/>
     <hyperlink ref="D32" r:id="rId29" display="mailto:cph-hs151@cphbusiness.dk" xr:uid="{03251D1A-D6F8-F243-95B6-8DCDF0B9024A}"/>
-    <hyperlink ref="D42" r:id="rId30" display="mailto:cph-jp330@cphbusiness.dk" xr:uid="{2742FBED-96D9-7145-A03C-DF536369BE19}"/>
+    <hyperlink ref="D36" r:id="rId30" display="mailto:cph-jp330@cphbusiness.dk" xr:uid="{2742FBED-96D9-7145-A03C-DF536369BE19}"/>
     <hyperlink ref="D30" r:id="rId31" display="mailto:cph-kh388@cphbusiness.dk" xr:uid="{413C9DF6-9649-FF43-9005-617153D39FC4}"/>
     <hyperlink ref="D43" r:id="rId32" display="mailto:cph-mj561@cphbusiness.dk" xr:uid="{079E783D-6663-9840-8E20-0C8B58126193}"/>
     <hyperlink ref="D18" r:id="rId33" display="mailto:cph-mb493@cphbusiness.dk" xr:uid="{1708782E-A20F-A04C-9A8D-AF23ECEC28CB}"/>
     <hyperlink ref="D33" r:id="rId34" display="mailto:cph-mi73@cphbusiness.dk" xr:uid="{A4468CD3-3DF5-384C-8AF4-C693B9135CF6}"/>
     <hyperlink ref="D24" r:id="rId35" display="mailto:cph-mh643@cphbusiness.dk" xr:uid="{5D66061C-0172-A44C-B732-69552EA78018}"/>
     <hyperlink ref="D44" r:id="rId36" display="mailto:cph-me209@cphbusiness.dk" xr:uid="{06B40315-94BB-BD4B-B540-C5D8538FC471}"/>
-    <hyperlink ref="D35" r:id="rId37" display="mailto:cph-mu47@cphbusiness.dk" xr:uid="{F5552375-798E-2C47-A53B-4829C72984CF}"/>
+    <hyperlink ref="D37" r:id="rId37" display="mailto:cph-mu47@cphbusiness.dk" xr:uid="{F5552375-798E-2C47-A53B-4829C72984CF}"/>
     <hyperlink ref="D25" r:id="rId38" display="mailto:cph-nc103@cphbusiness.dk" xr:uid="{BCCB3D03-FBCB-5D4D-81F8-36D1DECD4195}"/>
     <hyperlink ref="D26" r:id="rId39" display="mailto:cph-nj183@cphbusiness.dk" xr:uid="{8AD3CB84-06A3-5B45-A695-4C9EF187232C}"/>
     <hyperlink ref="D34" r:id="rId40" display="mailto:cph-ol31@cphbusiness.dk" xr:uid="{B35A2785-5C17-3A41-BF87-78E2D1E045D1}"/>
